--- a/dcomtestcasegeneration/Template/Copy of SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Template/Copy of SAIC_AS28_R1.0_DCOM.xlsx
@@ -5,16 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuc81hc\Documents\Visual Studio 2019\Projects\dcom_automation_gen_tool\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3703D1-60EE-4D0E-911B-D52B40B93F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{995AB677-F5A1-4807-B4C3-BC8F07C80532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{DB9EBBC0-B05C-484D-8414-653A215FB2F1}"/>
+    <workbookView xWindow="1725" yWindow="2100" windowWidth="14685" windowHeight="14490" xr2:uid="{DB9EBBC0-B05C-484D-8414-653A215FB2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$76</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -119,7 +125,259 @@
     <t>This testcase check all supported NRC</t>
   </si>
   <si>
+    <t>This testcase check suppress bit</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_10</t>
+  </si>
+  <si>
+    <t>2.1.3 Service 14h - Clear Diagnostic Information</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_11</t>
+  </si>
+  <si>
+    <t>2.1.3.1 Check all allowed diagnostic sessions in service 0x14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Read active session with service 0x22 F1 86
+5) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
+6) Change to Extended session with service 0x10 03
+7) Wait 1000 ms
+8) Read active session with service 0x22 F1 86
+9) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
+10) Change to Programming session with service 0x10 02
+11) Wait 1000 ms
+12) Read active session with service 0x22 F1 86
+13) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
+14) Change to Default session with service 0x10 01
+15) Wait 1000 ms
+16) Read active session with service 0x22 F1 86
+17) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_12</t>
+  </si>
+  <si>
+    <t>2.1.3.2 Check all supported addressing mode in service 0x14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Read active session with service 0x22 F1 86
+5) Request clear DTC with service 0x14 FF FF FF in Functional Addressing Mode
+6) Change to Extended session with service 0x10 03
+7) Wait 1000 ms
+8) Read active session with service 0x22 F1 86
+9) Request clear DTC with service 0x14 FF FF FF in Functional Addressing Mode
+10) Change to Programming session with service 0x10 02
+11) Wait 1000 ms
+12) Read active session with service 0x22 F1 86
+13) Request clear DTC with service 0x14 FF FF FF in Functional Addressing Mode
+14) Change to Default session with service 0x10 01
+15) Wait 1000 ms
+16) Read active session with service 0x22 F1 86
+17) Tester present OFF
+18) Tester present ON
+19) Change to Default session with service 0x10 01
+20) Wait 1000 ms
+21) Read active session with service 0x22 F1 86
+22) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
+23) Change to Extended session with service 0x10 03
+24) Wait 1000 ms
+25) Read active session with service 0x22 F1 86
+26) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
+27) Change to Programming session with service 0x10 02
+28) Wait 1000 ms
+29) Read active session with service 0x22 F1 86
+30) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
+31) Change to Default session with service 0x10 01
+32) Wait 1000 ms
+33) Read active session with service 0x22 F1 86
+34) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_13</t>
+  </si>
+  <si>
+    <t>2.1.3.3 Check that service deletes the Failure Memory</t>
+  </si>
+  <si>
+    <t>Check that service deletes the Failure Memory</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_14</t>
+  </si>
+  <si>
+    <t>2.1.3.4 Check all supported condition in service 0x14</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_15</t>
+  </si>
+  <si>
+    <t>2.1.3.5 Check all supported NRC in service 0x14</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_16</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_17</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_18</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_19</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_20</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_21</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_22</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_23</t>
+  </si>
+  <si>
+    <t>2.1.5 Service 22h - Read Data By Identifier</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_24</t>
+  </si>
+  <si>
+    <t>2.1.5.1 Check all allowed diagnostic sessions in service 0x22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Request read DID with service 0x22 F1 86 in Physical Addressing Mode
+5) Change to Extended session with service 0x10 03
+6) Wait 1000 ms
+7) Request read DID with service 0x22 F1 86 in Physical Addressing Mode
+8) Change to Programming session with service 0x10 02
+9) Wait 1000 ms
+10) Request read DID with service 0x22 F1 86 in Physical Addressing Mode
+11) Change to Default session with service 0x10 01
+12) Wait 1000 ms
+13) Request read DID with service 0x22 F1 86 in Physical Addressing Mode
+14) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_25</t>
+  </si>
+  <si>
+    <t>2.1.5.2 Check all supported addressing mode in service 0x22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Request read DID with service 0x22 F1 86 in Functional Addressing Mode
+5) Change to Extended session with service 0x10 03
+6) Wait 1000 ms
+7) Request read DID with service 0x22 F1 86 in Functional Addressing Mode
+8) Change to Programming session with service 0x10 02
+9) Wait 1000 ms
+10) Request read DID with service 0x22 F1 86 in Functional Addressing Mode
+11) Change to Default session with service 0x10 01
+12) Wait 1000 ms
+13) Request read DID with service 0x22 F1 86 in Functional Addressing Mode
+14) Tester present OFF
+15) Tester present ON
+16) Change to Default session with service 0x10 01
+17) Wait 1000 ms
+18) Request read DID with service 0x22 F1 86 in Physical Addressing Mode
+19) Change to Extended session with service 0x10 03
+20) Wait 1000 ms
+21) Request read DID with service 0x22 F1 86 in Physical Addressing Mode
+22) Change to Programming session with service 0x10 02
+23) Wait 1000 ms
+24) Request read DID with service 0x22 F1 86 in Physical Addressing Mode
+25) Change to Default session with service 0x10 01
+26) Wait 1000 ms
+27) Request read DID with service 0x22 F1 86 in Physical Addressing Mode
+28) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_26</t>
+  </si>
+  <si>
+    <t>2.1.5.3 DID Check for service 0x22</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_27</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_28</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_29</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_30</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_31</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_32</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_33</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_34</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_35</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_36</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_37</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_38</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_39</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_40</t>
+  </si>
+  <si>
+    <t>2.1.5.4 Check all supported condition in service 0x22</t>
+  </si>
+  <si>
+    <t>2.1.5.5 Check all supported NRC in service 0x22</t>
+  </si>
+  <si>
+    <t>2.1.8 Service 2Eh - Write Data by Identifier</t>
+  </si>
+  <si>
+    <t>2.1.10 Service 31h - Routine Control</t>
+  </si>
+  <si>
+    <t>2.1.12 Service 85h - Control DTC Setting</t>
+  </si>
+  <si>
     <t>2.1.2 Service 11h - ECU Reset</t>
+  </si>
+  <si>
+    <t>2.1.2.1 Check all allowed diagnostic sessions in service 0x11</t>
   </si>
   <si>
     <t xml:space="preserve">1) Tester present ON
@@ -180,6 +438,9 @@
 16) RequestResponse(22f186,62f18601, Equal)
 17) envvar(EnvTesterPresentOnOff(0;0))
 </t>
+  </si>
+  <si>
+    <t>2.1.2.2 Check all supported addressing mode in service 0x11</t>
   </si>
   <si>
     <t xml:space="preserve">1) Tester present ON
@@ -293,7 +554,7 @@
 </t>
   </si>
   <si>
-    <t>This testcase check suppress bit</t>
+    <t>2.1.2.3 Check suppress bit in service 0x11</t>
   </si>
   <si>
     <t xml:space="preserve">1) Tester present ON
@@ -407,19 +668,268 @@
 </t>
   </si>
   <si>
-    <t>2.1.2.6 Check all allowed diagnostic sessions in service 0x11</t>
-  </si>
-  <si>
-    <t>2.1.2.7 Check all supported addressing mode in service 0x11</t>
-  </si>
-  <si>
-    <t>2.1.2.8 Check suppress bit in service 0x11</t>
-  </si>
-  <si>
-    <t>2.1.2.9 Check all supported condition in service 0x11</t>
-  </si>
-  <si>
-    <t>2.1.2.10 Check all supported NRC in service 0x11</t>
+    <t>2.1.2.4 Check all supported condition in service 0x11</t>
+  </si>
+  <si>
+    <t>2.1.2.5 Check all supported NRC in service 0x11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) Positive response is received:0x 62 F1 86 01
+5) Negative response is received: 0x7F 54 7F
+6) -
+7) -
+8) Positive response is received:0x 62 F1 86 03
+9) Positive response is received: 0x54
+10) -
+11) -
+12) Positive response is received:0x 62 F1 86 02
+13) Positive response is received: 0x54
+14) -
+15) -
+16) Positive response is received:0x 62 F1 86 01
+17) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) RequestResponse(22f186,62f18601, Equal)
+5) RequestResponse(14ffffff, 7f547f, Equal)
+6) DiagSessionCtrl(Extended)
+7) wait(1000)
+8) RequestResponse(22f186,62f18603, Equal)
+9) RequestResponse(14ffffff, 54, Equal)
+10) DiagSessionCtrl(Programming)
+11) wait(1000)
+12) RequestResponse(22f186,62f18602, Equal)
+13) RequestResponse(14ffffff, 54, Equal)
+14) DiagSessionCtrl(Default)
+15) wait(1000)
+16) RequestResponse(22f186,62f18601, Equal)
+17) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) Positive response is received:0x 62 F1 86 01
+5) No response is received
+6) -
+7) -
+8) Positive response is received:0x 62 F1 86 03
+9) No response is received
+10) -
+11) -
+12) Positive response is received:0x 62 F1 86 02
+13) No response is received
+14) -
+15) -
+16) Positive response is received:0x 62 F1 86 01
+17) -
+18) -
+19) -
+20) -
+21) Positive response is received:0x 62 F1 86 01
+22) Negative response is received: 0x7F 54 7F
+23) -
+24) -
+25) Positive response is received:0x 62 F1 86 03
+26) Negative response is received: 0x7F 54 7F
+27) -
+28) -
+29) Positive response is received:0x 62 F1 86 02
+30) Negative response is received: 0x7F 54 7F
+31) -
+32) -
+33) Positive response is received:0x 62 F1 86 01
+34) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) RequestResponse(22f186,62f18601, Equal)
+5) FunctionalMessage(14ffffff, , None)
+6) DiagSessionCtrl(Extended)
+7) wait(1000)
+8) RequestResponse(22f186,62f18603, Equal)
+9) FunctionalMessage(14ffffff, , None)
+10) DiagSessionCtrl(Programming)
+11) wait(1000)
+12) RequestResponse(22f186,62f18602, Equal)
+13) FunctionalMessage(14ffffff, , None)
+14) DiagSessionCtrl(Default)
+15) wait(1000)
+16) RequestResponse(22f186,62f18601, Equal)
+17) envvar(EnvTesterPresentOnOff(0;0))
+18) envvar(EnvTesterPresentOnOff(1;0))
+19) DiagSessionCtrl(Default)
+20) wait(1000)
+21) RequestResponse(22f186,62f18601, Equal)
+22) RequestResponse(14ffffff, 7f547f, Equal)
+23) DiagSessionCtrl(Extended)
+24) wait(1000)
+25) RequestResponse(22f186,62f18603, Equal)
+26) RequestResponse(14ffffff, 7f547f, Equal)
+27) DiagSessionCtrl(Programming)
+28) wait(1000)
+29) RequestResponse(22f186,62f18602, Equal)
+30) RequestResponse(14ffffff, 7f547f, Equal)
+31) DiagSessionCtrl(Default)
+32) wait(1000)
+33) RequestResponse(22f186,62f18601, Equal)
+34) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t>2.1.4 Service 19h - ReadDTCInformation</t>
+  </si>
+  <si>
+    <t>2.1.4.1 Check all allowed diagnostic sessions in service 0x19</t>
+  </si>
+  <si>
+    <t>2.1.4.2 Check all supported addressing mode in service 0x19</t>
+  </si>
+  <si>
+    <t>2.1.4.3 Check suppress bit in service 0x19</t>
+  </si>
+  <si>
+    <t>2.1.4.3 Parametter Check for service 0x19</t>
+  </si>
+  <si>
+    <t>2.1.4.4 Check all supported condition in service 0x19</t>
+  </si>
+  <si>
+    <t>2.1.4.5 Check all supported NRC in service 0x19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) Negative response is received: 0x7F 62 7F
+5) -
+6) -
+7) Negative response is received: 0x7F 62 7F
+8) -
+9) -
+10) Negative response is received: 0x7F 62 7F
+11) -
+12) -
+13) Negative response is received: 0x7F 62 7F
+14) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) RequestResponse(22f186, 7f627f, Equal)
+5) DiagSessionCtrl(Extended)
+6) wait(1000)
+7) RequestResponse(22f186, 7f627f, Equal)
+8) DiagSessionCtrl(Programming)
+9) wait(1000)
+10) RequestResponse(22f186, 7f627f, Equal)
+11) DiagSessionCtrl(Default)
+12) wait(1000)
+13) RequestResponse(22f186, 7f627f, Equal)
+14) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) No response is received
+5) -
+6) -
+7) No response is received
+8) -
+9) -
+10) No response is received
+11) -
+12) -
+13) No response is received
+14) -
+15) -
+16) -
+17) -
+18) Negative response is received: 0x7F 62 7F
+19) -
+20) -
+21) Negative response is received: 0x7F 62 7F
+22) -
+23) -
+24) Negative response is received: 0x7F 62 7F
+25) -
+26) -
+27) Negative response is received: 0x7F 62 7F
+28) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) FunctionalMessage(22f186, , None)
+5) DiagSessionCtrl(Extended)
+6) wait(1000)
+7) FunctionalMessage(22f186, , None)
+8) DiagSessionCtrl(Programming)
+9) wait(1000)
+10) FunctionalMessage(22f186, , None)
+11) DiagSessionCtrl(Default)
+12) wait(1000)
+13) FunctionalMessage(22f186, , None)
+14) envvar(EnvTesterPresentOnOff(0;0))
+15) envvar(EnvTesterPresentOnOff(1;0))
+16) DiagSessionCtrl(Default)
+17) wait(1000)
+18) RequestResponse(22f186, 7f627f, Equal)
+19) DiagSessionCtrl(Extended)
+20) wait(1000)
+21) RequestResponse(22f186, 7f627f, Equal)
+22) DiagSessionCtrl(Programming)
+23) wait(1000)
+24) RequestResponse(22f186, 7f627f, Equal)
+25) DiagSessionCtrl(Default)
+26) wait(1000)
+27) RequestResponse(22f186, 7f627f, Equal)
+28) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t>2.1.6 Service 27h - Security Access</t>
+  </si>
+  <si>
+    <t>2.1.7 Service 28h - Communication Control</t>
+  </si>
+  <si>
+    <t>2.1.9 Service 2Fh - Input Output Control By Identifier</t>
+  </si>
+  <si>
+    <t>2.1.11 Service 3Eh - Tester Present</t>
+  </si>
+  <si>
+    <t>2.1.11.1 Check all allowed diagnostic sessions in service 0x3E</t>
+  </si>
+  <si>
+    <t>2.1.11.2 Check all supported addressing mode in service 0x3E</t>
+  </si>
+  <si>
+    <t>2.1.11.3 Check suppress bit in service 0x3E</t>
+  </si>
+  <si>
+    <t>2.1.11.4 Check all supported condition in service 0x3E</t>
+  </si>
+  <si>
+    <t>2.1.11.5 Check all supported NRC in service 0x3E</t>
   </si>
 </sst>
 </file>
@@ -503,12 +1013,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C48197-75ED-450E-83C6-A6D9065ABCDF}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,220 +1349,921 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A514E0-409C-4165-BB2B-19F3FD1FE419}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4E3519-4042-489C-9666-89EE38F19B09}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE077D33-3237-4F44-AB81-13CDD52E8EC0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>